--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_9_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_9_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3729432.938057855</v>
+        <v>3725276.751749887</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283182</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7599947.162454613</v>
+        <v>7599947.162454614</v>
       </c>
     </row>
     <row r="11">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>412.2877386950441</v>
+        <v>312.7173453913287</v>
       </c>
       <c r="H2" t="n">
-        <v>308.5974454495113</v>
+        <v>308.5974454495114</v>
       </c>
       <c r="I2" t="n">
-        <v>87.2875920581981</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>140.315783973424</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>209.8976922291835</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1044530022292</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>135.7303505775365</v>
       </c>
       <c r="H3" t="n">
-        <v>96.65565115906496</v>
+        <v>96.65565115906503</v>
       </c>
       <c r="I3" t="n">
-        <v>33.85559031833728</v>
+        <v>33.85559031833751</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>141.7193093041456</v>
+        <v>141.7193093041457</v>
       </c>
       <c r="T3" t="n">
         <v>193.6625353078282</v>
@@ -819,25 +819,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>150.2028876639205</v>
+        <v>125.8951146780558</v>
       </c>
       <c r="I4" t="n">
-        <v>114.7793764994862</v>
+        <v>114.7793764994864</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,10 +867,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.4475243713015</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>96.43900909258855</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -898,25 +898,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.5250233818693</v>
+        <v>11.52502338186935</v>
       </c>
       <c r="H5" t="n">
-        <v>300.7862872484598</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>64.83556544767973</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>122.935408774453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.5589059457607</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>223.5518288029175</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>285.3885647168957</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I6" t="n">
-        <v>19.80516901555393</v>
+        <v>19.80516901555394</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H7" t="n">
         <v>147.161060211447</v>
       </c>
       <c r="I7" t="n">
-        <v>104.4906595130011</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.4851693340911</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>61.68665010060877</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2265992197056</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>33.93089591116134</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1144,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>36.05290600853509</v>
+        <v>119.9288034530623</v>
       </c>
       <c r="H8" t="n">
-        <v>300.7862872484598</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>64.83556544767967</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0434357771752</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1232,7 +1232,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I9" t="n">
-        <v>19.80516901555391</v>
+        <v>19.80516901555394</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.4851693340911</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>73.66638001008474</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2265992197056</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>206.2864326596779</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1545,10 +1545,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>20.38427178197995</v>
       </c>
       <c r="S13" t="n">
-        <v>125.2851635392057</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1827,13 +1827,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>143.5476780877542</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1897,7 +1897,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2001,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>135.9022120075016</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2064,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2095,10 +2095,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2241,13 +2241,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D22" t="n">
-        <v>103.8784673763408</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2481,13 +2481,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2535,7 +2535,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>139.1584054594684</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2715,13 +2715,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>127.1477159870295</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2730,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>115.7063133373737</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3246,7 +3246,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>60.25690685266638</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>87.73390848162707</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>46.29306638367346</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3480,10 +3480,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3666,10 +3666,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>59.64858198764735</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3723,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3960,13 +3960,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>98.79136808967718</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>80.08971311158706</v>
       </c>
     </row>
     <row r="44">
@@ -4140,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4194,7 +4194,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>241.2831928543109</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1629.832263189218</v>
+        <v>2203.392926076864</v>
       </c>
       <c r="C2" t="n">
-        <v>1260.869746248806</v>
+        <v>1834.430409136452</v>
       </c>
       <c r="D2" t="n">
-        <v>1260.869746248806</v>
+        <v>1476.164710529702</v>
       </c>
       <c r="E2" t="n">
-        <v>875.0814936505622</v>
+        <v>1090.376457931458</v>
       </c>
       <c r="F2" t="n">
-        <v>868.1359929013587</v>
+        <v>679.3905531418502</v>
       </c>
       <c r="G2" t="n">
-        <v>451.6837315932333</v>
+        <v>363.5144466859626</v>
       </c>
       <c r="H2" t="n">
-        <v>139.9691402300905</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I2" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J2" t="n">
-        <v>125.8997233870233</v>
+        <v>125.8997233870222</v>
       </c>
       <c r="K2" t="n">
-        <v>608.5986938974718</v>
+        <v>287.6947354520161</v>
       </c>
       <c r="L2" t="n">
-        <v>846.2214751156638</v>
+        <v>525.3175166702063</v>
       </c>
       <c r="M2" t="n">
-        <v>1142.292041673267</v>
+        <v>1166.3407262901</v>
       </c>
       <c r="N2" t="n">
-        <v>1607.291184238462</v>
+        <v>1807.363935909994</v>
       </c>
       <c r="O2" t="n">
-        <v>2248.314393858356</v>
+        <v>2082.480155226627</v>
       </c>
       <c r="P2" t="n">
-        <v>2448.618721147459</v>
+        <v>2487.745304821932</v>
       </c>
       <c r="Q2" t="n">
-        <v>2550.866182466514</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="R2" t="n">
         <v>2589.992766140986</v>
       </c>
       <c r="S2" t="n">
-        <v>2448.259651016315</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="T2" t="n">
-        <v>2236.241780077746</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="U2" t="n">
-        <v>1982.600918459332</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="V2" t="n">
-        <v>1982.600918459332</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="W2" t="n">
-        <v>1629.832263189218</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="X2" t="n">
-        <v>1629.832263189218</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="Y2" t="n">
-        <v>1629.832263189218</v>
+        <v>2589.992766140986</v>
       </c>
     </row>
     <row r="3">
@@ -4385,67 +4385,67 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>949.8902083093631</v>
+        <v>949.8902083093635</v>
       </c>
       <c r="C3" t="n">
-        <v>775.4371790282361</v>
+        <v>775.4371790282365</v>
       </c>
       <c r="D3" t="n">
-        <v>626.5027693669847</v>
+        <v>626.5027693669854</v>
       </c>
       <c r="E3" t="n">
-        <v>467.2653143615291</v>
+        <v>467.2653143615298</v>
       </c>
       <c r="F3" t="n">
-        <v>320.7307563884142</v>
+        <v>320.7307563884149</v>
       </c>
       <c r="G3" t="n">
-        <v>183.6293921686807</v>
+        <v>183.6293921686809</v>
       </c>
       <c r="H3" t="n">
-        <v>85.9974213009382</v>
+        <v>85.99742130093843</v>
       </c>
       <c r="I3" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J3" t="n">
-        <v>77.11538214995069</v>
+        <v>201.9455071369548</v>
       </c>
       <c r="K3" t="n">
-        <v>198.5384744202298</v>
+        <v>585.1891840496857</v>
       </c>
       <c r="L3" t="n">
-        <v>408.1293476730608</v>
+        <v>1161.91199915294</v>
       </c>
       <c r="M3" t="n">
-        <v>672.0688791685486</v>
+        <v>1425.851530648426</v>
       </c>
       <c r="N3" t="n">
-        <v>1200.402351278125</v>
+        <v>1711.185401081757</v>
       </c>
       <c r="O3" t="n">
-        <v>1829.130999113547</v>
+        <v>1949.990352833214</v>
       </c>
       <c r="P3" t="n">
-        <v>2316.738101020794</v>
+        <v>2316.738101020796</v>
       </c>
       <c r="Q3" t="n">
         <v>2589.992766140986</v>
       </c>
       <c r="R3" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="S3" t="n">
         <v>2446.841948662051</v>
       </c>
       <c r="T3" t="n">
-        <v>2251.223226128891</v>
+        <v>2251.223226128892</v>
       </c>
       <c r="U3" t="n">
-        <v>2023.106809259862</v>
+        <v>2023.106809259863</v>
       </c>
       <c r="V3" t="n">
-        <v>1787.954701028119</v>
+        <v>1787.95470102812</v>
       </c>
       <c r="W3" t="n">
         <v>1533.717344299918</v>
@@ -4454,7 +4454,7 @@
         <v>1325.865844094385</v>
       </c>
       <c r="Y3" t="n">
-        <v>1118.105545329431</v>
+        <v>1118.105545329432</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>319.4587080131296</v>
+        <v>908.7612653873479</v>
       </c>
       <c r="C4" t="n">
-        <v>319.4587080131296</v>
+        <v>739.825082459441</v>
       </c>
       <c r="D4" t="n">
-        <v>319.4587080131296</v>
+        <v>589.7084430471052</v>
       </c>
       <c r="E4" t="n">
-        <v>319.4587080131296</v>
+        <v>441.7953494647121</v>
       </c>
       <c r="F4" t="n">
-        <v>319.4587080131296</v>
+        <v>294.9054019668017</v>
       </c>
       <c r="G4" t="n">
-        <v>319.4587080131296</v>
+        <v>294.9054019668017</v>
       </c>
       <c r="H4" t="n">
-        <v>167.7386194637149</v>
+        <v>167.7386194637151</v>
       </c>
       <c r="I4" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J4" t="n">
-        <v>54.03452733018415</v>
+        <v>54.03452733018376</v>
       </c>
       <c r="K4" t="n">
-        <v>187.5436166159875</v>
+        <v>187.5436166159864</v>
       </c>
       <c r="L4" t="n">
-        <v>413.9157199341317</v>
+        <v>413.9157199341299</v>
       </c>
       <c r="M4" t="n">
-        <v>662.9824862666723</v>
+        <v>662.9824862666695</v>
       </c>
       <c r="N4" t="n">
-        <v>911.5616180092733</v>
+        <v>911.5616180092698</v>
       </c>
       <c r="O4" t="n">
-        <v>1125.148384357428</v>
+        <v>1125.148384357424</v>
       </c>
       <c r="P4" t="n">
-        <v>1284.388078993472</v>
+        <v>1284.388078993468</v>
       </c>
       <c r="Q4" t="n">
-        <v>1311.202309361123</v>
+        <v>1311.202309361118</v>
       </c>
       <c r="R4" t="n">
-        <v>1311.202309361123</v>
+        <v>1311.202309361118</v>
       </c>
       <c r="S4" t="n">
-        <v>1108.730062521424</v>
+        <v>1311.202309361118</v>
       </c>
       <c r="T4" t="n">
-        <v>1011.31692202386</v>
+        <v>1311.202309361118</v>
       </c>
       <c r="U4" t="n">
-        <v>1011.31692202386</v>
+        <v>1311.202309361118</v>
       </c>
       <c r="V4" t="n">
-        <v>1011.31692202386</v>
+        <v>1311.202309361118</v>
       </c>
       <c r="W4" t="n">
-        <v>721.8997519868994</v>
+        <v>1311.202309361118</v>
       </c>
       <c r="X4" t="n">
-        <v>721.8997519868994</v>
+        <v>1311.202309361118</v>
       </c>
       <c r="Y4" t="n">
-        <v>501.1071728433693</v>
+        <v>1090.409730217588</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1229.530453193509</v>
+        <v>1587.443666017298</v>
       </c>
       <c r="C5" t="n">
-        <v>1229.530453193509</v>
+        <v>1218.481149076886</v>
       </c>
       <c r="D5" t="n">
-        <v>1229.530453193509</v>
+        <v>860.2154504701355</v>
       </c>
       <c r="E5" t="n">
-        <v>843.7422005952644</v>
+        <v>474.4271978718913</v>
       </c>
       <c r="F5" t="n">
-        <v>836.796699846061</v>
+        <v>63.44129308228371</v>
       </c>
       <c r="G5" t="n">
-        <v>421.1148580461929</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H5" t="n">
-        <v>117.2903254719912</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I5" t="n">
-        <v>51.79985532281973</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J5" t="n">
-        <v>189.9868871104777</v>
+        <v>189.9868871104787</v>
       </c>
       <c r="K5" t="n">
-        <v>447.8319447135507</v>
+        <v>447.8319447135516</v>
       </c>
       <c r="L5" t="n">
-        <v>804.6133007477383</v>
+        <v>804.613300747739</v>
       </c>
       <c r="M5" t="n">
-        <v>1233.270741187502</v>
+        <v>1233.270741187503</v>
       </c>
       <c r="N5" t="n">
-        <v>1673.478115539971</v>
+        <v>1673.478115539972</v>
       </c>
       <c r="O5" t="n">
-        <v>2075.818195082061</v>
+        <v>2075.818195082062</v>
       </c>
       <c r="P5" t="n">
         <v>2384.705143645557</v>
       </c>
       <c r="Q5" t="n">
-        <v>2568.493631507463</v>
+        <v>2568.493631507462</v>
       </c>
       <c r="R5" t="n">
-        <v>2589.992766140987</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.815585560731</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="T5" t="n">
-        <v>2257.170226019558</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="U5" t="n">
-        <v>2257.170226019558</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="V5" t="n">
-        <v>2257.170226019558</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="W5" t="n">
-        <v>1904.401570749444</v>
+        <v>2364.182838057231</v>
       </c>
       <c r="X5" t="n">
-        <v>1904.401570749444</v>
+        <v>2364.182838057231</v>
       </c>
       <c r="Y5" t="n">
-        <v>1616.13029325763</v>
+        <v>1974.043506081419</v>
       </c>
     </row>
     <row r="6">
@@ -4643,25 +4643,25 @@
         <v>71.80507655065199</v>
       </c>
       <c r="I6" t="n">
-        <v>51.79985532281973</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J6" t="n">
-        <v>115.2852578226161</v>
+        <v>240.1153828096209</v>
       </c>
       <c r="K6" t="n">
-        <v>301.9467472258289</v>
+        <v>573.7192355186012</v>
       </c>
       <c r="L6" t="n">
-        <v>599.2586963421436</v>
+        <v>871.0311846349159</v>
       </c>
       <c r="M6" t="n">
-        <v>965.564585834469</v>
+        <v>1237.337074127241</v>
       </c>
       <c r="N6" t="n">
-        <v>1355.974147160211</v>
+        <v>1627.746635452984</v>
       </c>
       <c r="O6" t="n">
-        <v>1690.902827875742</v>
+        <v>1962.675316168515</v>
       </c>
       <c r="P6" t="n">
         <v>2212.152044033533</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>452.8834591080514</v>
+        <v>982.2794430485947</v>
       </c>
       <c r="C7" t="n">
-        <v>452.8834591080514</v>
+        <v>813.3432601206878</v>
       </c>
       <c r="D7" t="n">
-        <v>452.8834591080514</v>
+        <v>663.226620708352</v>
       </c>
       <c r="E7" t="n">
-        <v>452.8834591080514</v>
+        <v>515.3135271259589</v>
       </c>
       <c r="F7" t="n">
-        <v>305.9935116101411</v>
+        <v>368.4235796280485</v>
       </c>
       <c r="G7" t="n">
-        <v>305.9935116101411</v>
+        <v>200.4473908899379</v>
       </c>
       <c r="H7" t="n">
-        <v>157.3459760430229</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I7" t="n">
-        <v>51.79985532281973</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J7" t="n">
-        <v>77.98108068080552</v>
+        <v>77.98108068080549</v>
       </c>
       <c r="K7" t="n">
         <v>250.8417132121972</v>
       </c>
       <c r="L7" t="n">
-        <v>527.5702436225445</v>
+        <v>527.5702436225444</v>
       </c>
       <c r="M7" t="n">
-        <v>829.7308018317423</v>
+        <v>829.7308018317422</v>
       </c>
       <c r="N7" t="n">
-        <v>1130.141273750634</v>
+        <v>1130.141273750633</v>
       </c>
       <c r="O7" t="n">
         <v>1391.602671897099</v>
       </c>
       <c r="P7" t="n">
-        <v>1591.807384634811</v>
+        <v>1591.80738463481</v>
       </c>
       <c r="Q7" t="n">
         <v>1646.983670153878</v>
       </c>
       <c r="R7" t="n">
-        <v>1544.862307910904</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="S7" t="n">
-        <v>1348.412641916873</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="T7" t="n">
-        <v>1286.1028943405</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="U7" t="n">
-        <v>996.9851173508988</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="V7" t="n">
-        <v>742.300629145012</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="W7" t="n">
-        <v>452.8834591080514</v>
+        <v>1612.710037920382</v>
       </c>
       <c r="X7" t="n">
-        <v>452.8834591080514</v>
+        <v>1384.720487022364</v>
       </c>
       <c r="Y7" t="n">
-        <v>452.8834591080514</v>
+        <v>1163.927907878834</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>833.4399525121062</v>
+        <v>1018.378952710154</v>
       </c>
       <c r="C8" t="n">
-        <v>464.4774355716945</v>
+        <v>649.4164357697425</v>
       </c>
       <c r="D8" t="n">
-        <v>464.4774355716945</v>
+        <v>649.4164357697425</v>
       </c>
       <c r="E8" t="n">
-        <v>464.4774355716945</v>
+        <v>649.4164357697425</v>
       </c>
       <c r="F8" t="n">
-        <v>457.531934822491</v>
+        <v>238.430530980135</v>
       </c>
       <c r="G8" t="n">
-        <v>421.1148580461929</v>
+        <v>117.2903254719912</v>
       </c>
       <c r="H8" t="n">
-        <v>117.2903254719911</v>
+        <v>117.2903254719912</v>
       </c>
       <c r="I8" t="n">
-        <v>51.79985532281973</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J8" t="n">
-        <v>189.9868871104781</v>
+        <v>189.9868871104782</v>
       </c>
       <c r="K8" t="n">
-        <v>447.8319447135512</v>
+        <v>447.8319447135507</v>
       </c>
       <c r="L8" t="n">
-        <v>804.6133007477383</v>
+        <v>804.6133007477381</v>
       </c>
       <c r="M8" t="n">
-        <v>1233.270741187503</v>
+        <v>1233.270741187502</v>
       </c>
       <c r="N8" t="n">
-        <v>1673.478115539972</v>
+        <v>1673.478115539971</v>
       </c>
       <c r="O8" t="n">
-        <v>2075.818195082062</v>
+        <v>2075.818195082061</v>
       </c>
       <c r="P8" t="n">
-        <v>2384.705143645558</v>
+        <v>2384.705143645557</v>
       </c>
       <c r="Q8" t="n">
-        <v>2568.493631507463</v>
+        <v>2568.493631507462</v>
       </c>
       <c r="R8" t="n">
-        <v>2589.992766140987</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S8" t="n">
-        <v>2589.992766140987</v>
+        <v>2465.815585560731</v>
       </c>
       <c r="T8" t="n">
-        <v>2589.992766140987</v>
+        <v>2465.815585560731</v>
       </c>
       <c r="U8" t="n">
-        <v>2336.413538083234</v>
+        <v>2465.815585560731</v>
       </c>
       <c r="V8" t="n">
-        <v>2336.413538083234</v>
+        <v>2134.75269821716</v>
       </c>
       <c r="W8" t="n">
-        <v>1983.644882813119</v>
+        <v>1781.984042947046</v>
       </c>
       <c r="X8" t="n">
-        <v>1610.17912455204</v>
+        <v>1408.518284685966</v>
       </c>
       <c r="Y8" t="n">
-        <v>1220.039792576228</v>
+        <v>1018.378952710154</v>
       </c>
     </row>
     <row r="9">
@@ -4868,40 +4868,40 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6796705356769</v>
+        <v>448.679670535677</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1451125625619</v>
+        <v>302.145112562562</v>
       </c>
       <c r="G9" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H9" t="n">
-        <v>71.80507655065196</v>
+        <v>71.80507655065199</v>
       </c>
       <c r="I9" t="n">
-        <v>51.79985532281973</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J9" t="n">
-        <v>115.2852578226162</v>
+        <v>115.2852578226161</v>
       </c>
       <c r="K9" t="n">
-        <v>301.946747225829</v>
+        <v>301.9467472258287</v>
       </c>
       <c r="L9" t="n">
-        <v>599.2586963421438</v>
+        <v>599.2586963421434</v>
       </c>
       <c r="M9" t="n">
-        <v>965.5645858344694</v>
+        <v>965.5645858344687</v>
       </c>
       <c r="N9" t="n">
-        <v>1355.974147160212</v>
+        <v>1355.974147160211</v>
       </c>
       <c r="O9" t="n">
-        <v>1987.759237993047</v>
+        <v>1690.902827875742</v>
       </c>
       <c r="P9" t="n">
-        <v>2237.235965858066</v>
+        <v>2255.657696694298</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.061870084021</v>
@@ -4938,49 +4938,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>348.8064422330658</v>
+        <v>518.7657712454554</v>
       </c>
       <c r="C10" t="n">
-        <v>348.8064422330658</v>
+        <v>349.8295883175485</v>
       </c>
       <c r="D10" t="n">
-        <v>198.6898028207301</v>
+        <v>199.7129489052128</v>
       </c>
       <c r="E10" t="n">
-        <v>198.6898028207301</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="F10" t="n">
-        <v>51.79985532281973</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="G10" t="n">
-        <v>51.79985532281973</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H10" t="n">
-        <v>51.79985532281973</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I10" t="n">
-        <v>51.79985532281973</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J10" t="n">
-        <v>77.98108068080555</v>
+        <v>77.98108068080549</v>
       </c>
       <c r="K10" t="n">
-        <v>250.8417132121973</v>
+        <v>250.8417132121972</v>
       </c>
       <c r="L10" t="n">
-        <v>527.5702436225445</v>
+        <v>527.5702436225444</v>
       </c>
       <c r="M10" t="n">
-        <v>829.7308018317424</v>
+        <v>829.7308018317422</v>
       </c>
       <c r="N10" t="n">
-        <v>1130.141273750634</v>
+        <v>1130.141273750633</v>
       </c>
       <c r="O10" t="n">
         <v>1391.602671897099</v>
       </c>
       <c r="P10" t="n">
-        <v>1591.807384634811</v>
+        <v>1591.80738463481</v>
       </c>
       <c r="Q10" t="n">
         <v>1646.983670153878</v>
@@ -4989,25 +4989,25 @@
         <v>1646.983670153878</v>
       </c>
       <c r="S10" t="n">
-        <v>1450.534004159847</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="T10" t="n">
-        <v>1376.123519301176</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="U10" t="n">
-        <v>1087.005742311574</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="V10" t="n">
-        <v>1087.005742311574</v>
+        <v>1438.613536154203</v>
       </c>
       <c r="W10" t="n">
-        <v>797.5885722746133</v>
+        <v>1149.196366117243</v>
       </c>
       <c r="X10" t="n">
-        <v>569.5990213765959</v>
+        <v>921.2068152192253</v>
       </c>
       <c r="Y10" t="n">
-        <v>348.8064422330658</v>
+        <v>700.4142360756952</v>
       </c>
     </row>
     <row r="11">
@@ -5029,34 +5029,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5117,25 +5117,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N12" t="n">
-        <v>1550.665004989558</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>789.7592298206043</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C13" t="n">
-        <v>620.8230468926974</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D13" t="n">
-        <v>470.7064074803617</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E13" t="n">
-        <v>322.7933138979686</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F13" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2426.372910063109</v>
       </c>
       <c r="S13" t="n">
-        <v>2253.366709591041</v>
+        <v>2243.518075718013</v>
       </c>
       <c r="T13" t="n">
-        <v>2253.366709591041</v>
+        <v>2023.916610740955</v>
       </c>
       <c r="U13" t="n">
-        <v>1964.291482935239</v>
+        <v>2023.916610740955</v>
       </c>
       <c r="V13" t="n">
-        <v>1709.606994729352</v>
+        <v>1769.232122535068</v>
       </c>
       <c r="W13" t="n">
-        <v>1420.189824692392</v>
+        <v>1479.814952498107</v>
       </c>
       <c r="X13" t="n">
-        <v>1192.200273794374</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y13" t="n">
-        <v>971.4076946508441</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="14">
@@ -5272,13 +5272,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075809</v>
@@ -5287,13 +5287,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5357,16 +5357,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349513</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N15" t="n">
         <v>1577.52840832642</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1508.305175991783</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1280.315625093766</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5509,16 +5509,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,22 +5527,22 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>2231.588527385792</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>2231.588527385792</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>2231.588527385792</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>2726.914133601551</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M18" t="n">
-        <v>3324.292621228103</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N18" t="n">
-        <v>3715.300272664239</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>4267.210002903526</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W18" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>984.9192356072721</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>847.644273983533</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711973</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888042</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.70136564882</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.711814750802</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>984.9192356072721</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5731,22 +5731,22 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192599</v>
@@ -5764,37 +5764,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,28 +5825,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803938</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>740.5562989961526</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M21" t="n">
-        <v>1337.934786622704</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>1965.532750177311</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>2517.442480416598</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5889,25 +5889,25 @@
         <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>513.8536007400717</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D22" t="n">
-        <v>408.925855915485</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E22" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5977,34 +5977,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>221.3431781811722</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263527</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
         <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578603</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6174,25 +6174,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.286391947399</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V25" t="n">
-        <v>1797.722346028744</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W25" t="n">
-        <v>1508.305175991783</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X25" t="n">
-        <v>1280.315625093766</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6214,25 +6214,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
@@ -6241,22 +6241,22 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
@@ -6265,10 +6265,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C27" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D27" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G27" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>2231.588527385792</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>2231.588527385792</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>2565.513299557012</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>3060.838905772771</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>3060.838905772771</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>3688.436869327378</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>4240.346599566665</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>4663.969749061733</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>4663.969749061733</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S27" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T27" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U27" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V27" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W27" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X27" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y27" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3012.408157764292</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C28" t="n">
-        <v>2883.976121413757</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D28" t="n">
-        <v>2733.859482001422</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>2733.859482001422</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>2586.969534503512</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>2419.773435218392</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218392</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650996</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.932614305901</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>4221.331149328842</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U28" t="n">
-        <v>3932.25592267304</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V28" t="n">
-        <v>3932.25592267304</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W28" t="n">
-        <v>3642.838752636079</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X28" t="n">
-        <v>3414.849201738062</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y28" t="n">
-        <v>3194.056622594532</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="29">
@@ -6472,13 +6472,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6542,28 +6542,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>427.7414352191925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3235.613758549116</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>3066.677575621209</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>2916.560936208873</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>2768.64784262648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>2621.75789512857</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>2454.56179584345</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4690.833152398593</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4471.231687421535</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>4182.156460765733</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>3927.471972559846</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>3638.054802522885</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>3638.054802522885</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>3417.262223379355</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6688,31 +6688,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
@@ -6776,25 +6776,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>352.5519571452613</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718132</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>707.672526468518</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C34" t="n">
-        <v>538.7363435406111</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D34" t="n">
-        <v>388.6197041282753</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>240.7066105458822</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V34" t="n">
-        <v>1627.520291377266</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W34" t="n">
-        <v>1338.103121340305</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X34" t="n">
-        <v>1110.113570442288</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y34" t="n">
-        <v>889.3209912987577</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="35">
@@ -6919,46 +6919,46 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111703</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7019,22 +7019,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>1767.889897446606</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>869.9745311434716</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C37" t="n">
-        <v>701.0383482155647</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D37" t="n">
-        <v>701.0383482155647</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="E37" t="n">
-        <v>553.1252546331716</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="F37" t="n">
-        <v>406.2353071352612</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>282.2891673205955</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>140.5773361627936</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1789.822296052219</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W37" t="n">
-        <v>1500.405126015259</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X37" t="n">
-        <v>1272.415575117241</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y37" t="n">
-        <v>1051.622995973711</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="38">
@@ -7165,16 +7165,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7256,16 +7256,16 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>870.3164745246296</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>701.3802915967227</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>551.263652184387</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>403.3505586019938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>403.3505586019938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>236.1544593168738</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1500.747069396417</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1272.757518498399</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>1051.964939354869</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7402,19 +7402,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1540.888753373306</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>931.4710609784063</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C43" t="n">
-        <v>762.5348780504994</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D43" t="n">
-        <v>612.4182386381636</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E43" t="n">
-        <v>464.5051450557705</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1433.70136564882</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1113.119525808646</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="44">
@@ -7654,16 +7654,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7730,22 +7730,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L45" t="n">
-        <v>738.7889117913853</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M45" t="n">
-        <v>1336.167399417937</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>1963.765362972544</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7833,25 +7833,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -7981,28 +7981,28 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>348.4370131942355</v>
       </c>
       <c r="N2" t="n">
-        <v>161.135390231929</v>
+        <v>338.9374781659705</v>
       </c>
       <c r="O2" t="n">
-        <v>369.6030205083429</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>207.0311336426302</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>65.71641987298243</v>
+        <v>26.19461818159803</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,25 +8057,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>245.4541431073169</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>196.3826133675482</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>148.4266296017855</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>274.5176649421942</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8546,16 +8546,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>299.8549597144483</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>191.4694788103615</v>
       </c>
       <c r="R9" t="n">
-        <v>20.18437503906576</v>
+        <v>20.1843750390658</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -10351,7 +10351,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>-3.282327221323107e-14</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>45.99097492814173</v>
       </c>
       <c r="S13" t="n">
-        <v>55.74112246243892</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>142.9753202488368</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>31.34460909112619</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24129,13 +24129,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D22" t="n">
-        <v>44.7370056418716</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24369,13 +24369,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>112.9792378643596</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24603,13 +24603,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>40.09910511159832</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>24.5883995088502</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>191.8807364711616</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>77.79022981064178</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>34.97276993489207</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,10 +25368,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25554,10 +25554,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>80.64613085857654</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25791,16 +25791,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25848,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>126.91828729936</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
     </row>
     <row r="44">
@@ -26028,19 +26028,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>10.85445046951713</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>690483.089478737</v>
+        <v>690483.0894787373</v>
       </c>
     </row>
     <row r="3">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>651206.7754371159</v>
+        <v>651206.7754371158</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>651206.7754371159</v>
+        <v>651206.7754371158</v>
       </c>
     </row>
     <row r="8">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>651206.7754371158</v>
+        <v>651206.7754371159</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>651206.7754371159</v>
+        <v>651206.7754371158</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710694</v>
+        <v>779989.6813710692</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.6813710694</v>
+        <v>779989.6813710696</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.6813710694</v>
+        <v>779989.6813710693</v>
       </c>
       <c r="E2" t="n">
         <v>766789.2697055058</v>
       </c>
       <c r="F2" t="n">
-        <v>766789.2697055062</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="G2" t="n">
-        <v>766789.2697055062</v>
+        <v>766789.269705506</v>
       </c>
       <c r="H2" t="n">
+        <v>766789.2697055059</v>
+      </c>
+      <c r="I2" t="n">
+        <v>766789.2697055057</v>
+      </c>
+      <c r="J2" t="n">
+        <v>766789.2697055059</v>
+      </c>
+      <c r="K2" t="n">
+        <v>766789.269705506</v>
+      </c>
+      <c r="L2" t="n">
         <v>766789.2697055058</v>
       </c>
-      <c r="I2" t="n">
-        <v>766789.2697055059</v>
-      </c>
-      <c r="J2" t="n">
-        <v>766789.269705506</v>
-      </c>
-      <c r="K2" t="n">
-        <v>766789.2697055059</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>766789.2697055057</v>
-      </c>
-      <c r="M2" t="n">
-        <v>766789.2697055062</v>
       </c>
       <c r="N2" t="n">
         <v>766789.2697055059</v>
       </c>
       <c r="O2" t="n">
-        <v>766789.2697055062</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="P2" t="n">
-        <v>766789.2697055058</v>
+        <v>766789.269705506</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>939682.9358753986</v>
+        <v>939682.9358753958</v>
       </c>
       <c r="C3" t="n">
-        <v>172764.3597898924</v>
+        <v>172764.3597898951</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>500888.8677457506</v>
+        <v>500888.8677457507</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,19 +26383,19 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>169414.016826048</v>
+        <v>169414.0168260481</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.62584001373034e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>130884.4569042352</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>159785.8388151599</v>
+        <v>159785.8388151604</v>
       </c>
       <c r="C4" t="n">
         <v>129066.7547252479</v>
@@ -26426,37 +26426,37 @@
         <v>129066.7547252479</v>
       </c>
       <c r="E4" t="n">
-        <v>6287.480531695031</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="F4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="G4" t="n">
-        <v>6287.480531694995</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="H4" t="n">
         <v>6287.480531695052</v>
       </c>
       <c r="I4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="J4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="K4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="L4" t="n">
-        <v>6287.480531695025</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="M4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="N4" t="n">
         <v>6287.480531695052</v>
       </c>
       <c r="O4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="P4" t="n">
         <v>6287.480531695052</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>89345.0748969909</v>
+        <v>89345.07489699085</v>
       </c>
       <c r="C5" t="n">
         <v>93481.0893615096</v>
       </c>
       <c r="D5" t="n">
-        <v>93481.08936150961</v>
+        <v>93481.0893615096</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-408824.1682164799</v>
+        <v>-408824.1682164778</v>
       </c>
       <c r="C6" t="n">
-        <v>384677.4774944194</v>
+        <v>384677.477494417</v>
       </c>
       <c r="D6" t="n">
         <v>557441.8372843117</v>
       </c>
       <c r="E6" t="n">
-        <v>158490.3916041531</v>
+        <v>158143.012349796</v>
       </c>
       <c r="F6" t="n">
-        <v>659379.259349904</v>
+        <v>659031.8800955468</v>
       </c>
       <c r="G6" t="n">
-        <v>659379.259349904</v>
+        <v>659031.8800955469</v>
       </c>
       <c r="H6" t="n">
-        <v>659379.2593499036</v>
+        <v>659031.8800955467</v>
       </c>
       <c r="I6" t="n">
-        <v>659379.2593499038</v>
+        <v>659031.8800955467</v>
       </c>
       <c r="J6" t="n">
-        <v>489965.2425238558</v>
+        <v>489617.8632694987</v>
       </c>
       <c r="K6" t="n">
-        <v>659379.2593499038</v>
+        <v>659031.8800955469</v>
       </c>
       <c r="L6" t="n">
-        <v>659379.2593499034</v>
+        <v>659031.8800955467</v>
       </c>
       <c r="M6" t="n">
-        <v>528494.8024456688</v>
+        <v>528147.4231913114</v>
       </c>
       <c r="N6" t="n">
-        <v>659379.2593499039</v>
+        <v>659031.8800955468</v>
       </c>
       <c r="O6" t="n">
-        <v>659379.2593499039</v>
+        <v>659031.8800955468</v>
       </c>
       <c r="P6" t="n">
-        <v>659379.2593499038</v>
+        <v>659031.8800955469</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976108</v>
+        <v>749.9809564976077</v>
       </c>
       <c r="C3" t="n">
-        <v>939.7063906498446</v>
+        <v>939.7063906498445</v>
       </c>
       <c r="D3" t="n">
-        <v>939.7063906498448</v>
+        <v>939.7063906498445</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="C4" t="n">
-        <v>647.4981915352466</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="D4" t="n">
-        <v>647.4981915352466</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26804,16 +26804,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26928,7 +26928,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.218023548783846e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26959,26 +26959,26 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976108</v>
+        <v>749.9809564976077</v>
       </c>
       <c r="C3" t="n">
-        <v>189.7254341522338</v>
+        <v>189.7254341522367</v>
       </c>
       <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>428.2691096918293</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="E3" t="n">
-        <v>428.2691096918292</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
@@ -26989,7 +26989,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>525.2100965644017</v>
+        <v>525.2100965644019</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644017</v>
+        <v>525.2100965644019</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27165,7 +27165,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>3.218023548783846e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644017</v>
+        <v>525.2100965644019</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>99.57039330371543</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>6.952555500653446</v>
+        <v>94.24014755885203</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,19 +27429,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>140.3157839734243</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>209.8976922291835</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1044530022292</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27539,22 +27539,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.6385546828073</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>24.30777298586474</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>116.4834600519698</v>
+        <v>116.48346005197</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.4475243713015</v>
       </c>
       <c r="T4" t="n">
-        <v>125.7280385397277</v>
+        <v>222.1670476323163</v>
       </c>
       <c r="U4" t="n">
         <v>286.245260737819</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27618,25 +27618,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U5" t="n">
         <v>251.0434357771752</v>
@@ -27678,13 +27678,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>125.6891399144955</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>100.8493739391579</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.2964268507295</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T7" t="n">
-        <v>159.0185786128297</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>252.5921024254297</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27864,13 +27864,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>375.4721173733342</v>
+        <v>291.596219928807</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>122.935408774453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>206.5589059457607</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.2964268507295</v>
@@ -28061,16 +28061,16 @@
         <v>101.1001486205444</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T10" t="n">
-        <v>147.0388487033537</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>45.85121066415013</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.014998820090895</v>
+        <v>3.014998820090883</v>
       </c>
       <c r="H2" t="n">
-        <v>30.87735666625589</v>
+        <v>30.87735666625576</v>
       </c>
       <c r="I2" t="n">
-        <v>116.2357420115544</v>
+        <v>116.2357420115539</v>
       </c>
       <c r="J2" t="n">
-        <v>255.8942561066899</v>
+        <v>255.8942561066888</v>
       </c>
       <c r="K2" t="n">
-        <v>383.5191561611376</v>
+        <v>383.519156161136</v>
       </c>
       <c r="L2" t="n">
-        <v>475.7894263014944</v>
+        <v>475.7894263014924</v>
       </c>
       <c r="M2" t="n">
-        <v>529.4074115682859</v>
+        <v>529.4074115682837</v>
       </c>
       <c r="N2" t="n">
-        <v>537.9737769658691</v>
+        <v>537.9737769658669</v>
       </c>
       <c r="O2" t="n">
-        <v>507.9933824485902</v>
+        <v>507.9933824485882</v>
       </c>
       <c r="P2" t="n">
-        <v>433.5605990775962</v>
+        <v>433.5605990775944</v>
       </c>
       <c r="Q2" t="n">
-        <v>325.5859538330909</v>
+        <v>325.5859538330896</v>
       </c>
       <c r="R2" t="n">
-        <v>189.3909196325349</v>
+        <v>189.3909196325341</v>
       </c>
       <c r="S2" t="n">
-        <v>68.70428561282135</v>
+        <v>68.70428561282107</v>
       </c>
       <c r="T2" t="n">
-        <v>13.1981573349479</v>
+        <v>13.19815733494785</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2411999056072716</v>
+        <v>0.2411999056072706</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.613166585674106</v>
+        <v>1.6131665856741</v>
       </c>
       <c r="H3" t="n">
-        <v>15.5797930774315</v>
+        <v>15.57979307743144</v>
       </c>
       <c r="I3" t="n">
-        <v>55.54104253307779</v>
+        <v>55.54104253307757</v>
       </c>
       <c r="J3" t="n">
-        <v>152.4088658859909</v>
+        <v>152.4088658859903</v>
       </c>
       <c r="K3" t="n">
-        <v>260.491027126156</v>
+        <v>260.491027126155</v>
       </c>
       <c r="L3" t="n">
-        <v>350.2623325605116</v>
+        <v>350.2623325605101</v>
       </c>
       <c r="M3" t="n">
-        <v>408.7396212911979</v>
+        <v>408.7396212911962</v>
       </c>
       <c r="N3" t="n">
-        <v>419.5577428240738</v>
+        <v>419.5577428240721</v>
       </c>
       <c r="O3" t="n">
-        <v>383.813367425716</v>
+        <v>383.8133674257144</v>
       </c>
       <c r="P3" t="n">
-        <v>308.04406494333</v>
+        <v>308.0440649433287</v>
       </c>
       <c r="Q3" t="n">
-        <v>205.9192996028912</v>
+        <v>205.9192996028904</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526432</v>
+        <v>100.1578341526428</v>
       </c>
       <c r="S3" t="n">
-        <v>29.96386179969226</v>
+        <v>29.96386179969214</v>
       </c>
       <c r="T3" t="n">
-        <v>6.502193386993435</v>
+        <v>6.502193386993408</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1061293806364544</v>
+        <v>0.106129380636454</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.352424675651429</v>
+        <v>1.352424675651424</v>
       </c>
       <c r="H4" t="n">
-        <v>12.02428484351908</v>
+        <v>12.02428484351903</v>
       </c>
       <c r="I4" t="n">
-        <v>40.67109842777208</v>
+        <v>40.67109842777192</v>
       </c>
       <c r="J4" t="n">
-        <v>95.61642456855604</v>
+        <v>95.61642456855564</v>
       </c>
       <c r="K4" t="n">
-        <v>157.1271577711387</v>
+        <v>157.1271577711381</v>
       </c>
       <c r="L4" t="n">
-        <v>201.0686649600316</v>
+        <v>201.0686649600308</v>
       </c>
       <c r="M4" t="n">
-        <v>211.9987152932508</v>
+        <v>211.9987152932499</v>
       </c>
       <c r="N4" t="n">
-        <v>206.9578596840047</v>
+        <v>206.9578596840039</v>
       </c>
       <c r="O4" t="n">
-        <v>191.1590805184402</v>
+        <v>191.1590805184395</v>
       </c>
       <c r="P4" t="n">
-        <v>163.569617135151</v>
+        <v>163.5696171351503</v>
       </c>
       <c r="Q4" t="n">
-        <v>113.2471244311392</v>
+        <v>113.2471244311388</v>
       </c>
       <c r="R4" t="n">
-        <v>60.8099313251997</v>
+        <v>60.80993132519945</v>
       </c>
       <c r="S4" t="n">
-        <v>23.56907366567081</v>
+        <v>23.56907366567071</v>
       </c>
       <c r="T4" t="n">
-        <v>5.778541795965196</v>
+        <v>5.778541795965173</v>
       </c>
       <c r="U4" t="n">
-        <v>0.07376861867189623</v>
+        <v>0.07376861867189592</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.777714133265704</v>
+        <v>3.777714133265703</v>
       </c>
       <c r="H5" t="n">
         <v>38.6885148673074</v>
@@ -31290,37 +31290,37 @@
         <v>320.6287649182603</v>
       </c>
       <c r="K5" t="n">
-        <v>480.5394041793977</v>
+        <v>480.5394041793976</v>
       </c>
       <c r="L5" t="n">
         <v>596.1516230853281</v>
       </c>
       <c r="M5" t="n">
-        <v>663.3335468027921</v>
+        <v>663.3335468027919</v>
       </c>
       <c r="N5" t="n">
         <v>674.0669770839332</v>
       </c>
       <c r="O5" t="n">
-        <v>636.5023321712724</v>
+        <v>636.5023321712723</v>
       </c>
       <c r="P5" t="n">
         <v>543.2400145062752</v>
       </c>
       <c r="Q5" t="n">
-        <v>407.9506271086971</v>
+        <v>407.950627108697</v>
       </c>
       <c r="R5" t="n">
         <v>237.301835423752</v>
       </c>
       <c r="S5" t="n">
-        <v>86.08466081179232</v>
+        <v>86.0846608117923</v>
       </c>
       <c r="T5" t="n">
-        <v>16.53694361837063</v>
+        <v>16.53694361837062</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3022171306612563</v>
+        <v>0.3022171306612562</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31363,7 +31363,7 @@
         <v>19.52107049255621</v>
       </c>
       <c r="I6" t="n">
-        <v>69.59146383586115</v>
+        <v>69.59146383586113</v>
       </c>
       <c r="J6" t="n">
         <v>190.9642958583802</v>
@@ -31384,19 +31384,19 @@
         <v>480.9080431470011</v>
       </c>
       <c r="P6" t="n">
-        <v>385.9711022274806</v>
+        <v>385.9711022274805</v>
       </c>
       <c r="Q6" t="n">
-        <v>258.0114603157838</v>
+        <v>258.0114603157837</v>
       </c>
       <c r="R6" t="n">
         <v>125.4951289248982</v>
       </c>
       <c r="S6" t="n">
-        <v>37.5439298528499</v>
+        <v>37.54392985284989</v>
       </c>
       <c r="T6" t="n">
-        <v>8.147077103841575</v>
+        <v>8.147077103841573</v>
       </c>
       <c r="U6" t="n">
         <v>0.1329773194315818</v>
@@ -31442,25 +31442,25 @@
         <v>15.0661122959926</v>
       </c>
       <c r="I7" t="n">
-        <v>50.95981541425716</v>
+        <v>50.95981541425715</v>
       </c>
       <c r="J7" t="n">
         <v>119.8048622964564</v>
       </c>
       <c r="K7" t="n">
-        <v>196.8761913525412</v>
+        <v>196.8761913525411</v>
       </c>
       <c r="L7" t="n">
         <v>251.9337428309436</v>
       </c>
       <c r="M7" t="n">
-        <v>265.6288080979552</v>
+        <v>265.6288080979551</v>
       </c>
       <c r="N7" t="n">
-        <v>259.3127487509647</v>
+        <v>259.3127487509646</v>
       </c>
       <c r="O7" t="n">
-        <v>239.5172944561277</v>
+        <v>239.5172944561276</v>
       </c>
       <c r="P7" t="n">
         <v>204.9484232984512</v>
@@ -31469,16 +31469,16 @@
         <v>141.8956649881265</v>
       </c>
       <c r="R7" t="n">
-        <v>76.19324275662508</v>
+        <v>76.19324275662507</v>
       </c>
       <c r="S7" t="n">
-        <v>29.53142870288117</v>
+        <v>29.53142870288116</v>
       </c>
       <c r="T7" t="n">
-        <v>7.240360714843062</v>
+        <v>7.240360714843061</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09243013678523071</v>
+        <v>0.0924301367852307</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.777714133265705</v>
+        <v>3.777714133265703</v>
       </c>
       <c r="H8" t="n">
-        <v>38.68851486730741</v>
+        <v>38.6885148673074</v>
       </c>
       <c r="I8" t="n">
         <v>145.6403241227262</v>
       </c>
       <c r="J8" t="n">
-        <v>320.6287649182604</v>
+        <v>320.6287649182603</v>
       </c>
       <c r="K8" t="n">
-        <v>480.5394041793978</v>
+        <v>480.5394041793976</v>
       </c>
       <c r="L8" t="n">
-        <v>596.1516230853282</v>
+        <v>596.1516230853281</v>
       </c>
       <c r="M8" t="n">
-        <v>663.3335468027922</v>
+        <v>663.3335468027919</v>
       </c>
       <c r="N8" t="n">
-        <v>674.0669770839335</v>
+        <v>674.0669770839332</v>
       </c>
       <c r="O8" t="n">
-        <v>636.5023321712725</v>
+        <v>636.5023321712723</v>
       </c>
       <c r="P8" t="n">
-        <v>543.2400145062753</v>
+        <v>543.2400145062752</v>
       </c>
       <c r="Q8" t="n">
-        <v>407.9506271086972</v>
+        <v>407.950627108697</v>
       </c>
       <c r="R8" t="n">
         <v>237.301835423752</v>
       </c>
       <c r="S8" t="n">
-        <v>86.08466081179233</v>
+        <v>86.0846608117923</v>
       </c>
       <c r="T8" t="n">
-        <v>16.53694361837063</v>
+        <v>16.53694361837062</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3022171306612563</v>
+        <v>0.3022171306612562</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.021255255360044</v>
+        <v>2.021255255360043</v>
       </c>
       <c r="H9" t="n">
         <v>19.52107049255621</v>
       </c>
       <c r="I9" t="n">
-        <v>69.59146383586116</v>
+        <v>69.59146383586113</v>
       </c>
       <c r="J9" t="n">
-        <v>190.9642958583803</v>
+        <v>190.9642958583802</v>
       </c>
       <c r="K9" t="n">
-        <v>326.3883979675032</v>
+        <v>326.3883979675031</v>
       </c>
       <c r="L9" t="n">
-        <v>438.8694798973639</v>
+        <v>438.8694798973638</v>
       </c>
       <c r="M9" t="n">
-        <v>512.1399829041653</v>
+        <v>512.1399829041652</v>
       </c>
       <c r="N9" t="n">
-        <v>525.694804331558</v>
+        <v>525.6948043315579</v>
       </c>
       <c r="O9" t="n">
-        <v>480.9080431470013</v>
+        <v>480.9080431470011</v>
       </c>
       <c r="P9" t="n">
-        <v>385.9711022274806</v>
+        <v>385.9711022274805</v>
       </c>
       <c r="Q9" t="n">
-        <v>258.0114603157838</v>
+        <v>258.0114603157837</v>
       </c>
       <c r="R9" t="n">
         <v>125.4951289248982</v>
       </c>
       <c r="S9" t="n">
-        <v>37.54392985284991</v>
+        <v>37.54392985284989</v>
       </c>
       <c r="T9" t="n">
-        <v>8.147077103841577</v>
+        <v>8.147077103841573</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1329773194315819</v>
+        <v>0.1329773194315818</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,43 +31679,43 @@
         <v>15.0661122959926</v>
       </c>
       <c r="I10" t="n">
-        <v>50.95981541425717</v>
+        <v>50.95981541425715</v>
       </c>
       <c r="J10" t="n">
         <v>119.8048622964564</v>
       </c>
       <c r="K10" t="n">
-        <v>196.8761913525412</v>
+        <v>196.8761913525411</v>
       </c>
       <c r="L10" t="n">
-        <v>251.9337428309437</v>
+        <v>251.9337428309436</v>
       </c>
       <c r="M10" t="n">
-        <v>265.6288080979552</v>
+        <v>265.6288080979551</v>
       </c>
       <c r="N10" t="n">
-        <v>259.3127487509647</v>
+        <v>259.3127487509646</v>
       </c>
       <c r="O10" t="n">
-        <v>239.5172944561277</v>
+        <v>239.5172944561276</v>
       </c>
       <c r="P10" t="n">
-        <v>204.9484232984513</v>
+        <v>204.9484232984512</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.8956649881266</v>
+        <v>141.8956649881265</v>
       </c>
       <c r="R10" t="n">
-        <v>76.1932427566251</v>
+        <v>76.19324275662507</v>
       </c>
       <c r="S10" t="n">
-        <v>29.53142870288118</v>
+        <v>29.53142870288116</v>
       </c>
       <c r="T10" t="n">
-        <v>7.240360714843064</v>
+        <v>7.240360714843061</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09243013678523074</v>
+        <v>0.0924301367852307</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>491.5977325265315</v>
+        <v>338.6542681503486</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>189.0011860882997</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>513.0745614164389</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>526.2989357561987</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32496,7 +32496,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
         <v>125.3175546292901</v>
@@ -32548,19 +32548,19 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>597.1709559744727</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071786</v>
@@ -32569,7 +32569,7 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>169.9530009943068</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32785,31 +32785,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>266.6561007250664</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33022,10 +33022,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33034,22 +33034,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>172.8142548092788</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33262,31 +33262,31 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>396.970088694367</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,34 +33490,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>399.9031616963282</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33739,37 +33739,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>230.1272937575231</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33976,7 +33976,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>173.8200325543357</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>489.289183278307</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34450,7 +34450,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34468,7 +34468,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>177.7456072667729</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>74.84835158000359</v>
+        <v>74.84835158000254</v>
       </c>
       <c r="K2" t="n">
-        <v>487.5747176873218</v>
+        <v>163.4293051161554</v>
       </c>
       <c r="L2" t="n">
-        <v>240.0230113315071</v>
+        <v>240.0230113315052</v>
       </c>
       <c r="M2" t="n">
-        <v>299.0611783410131</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="N2" t="n">
-        <v>469.6961036012072</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="O2" t="n">
-        <v>647.4981915352464</v>
+        <v>277.8951710269015</v>
       </c>
       <c r="P2" t="n">
-        <v>202.3276033223266</v>
+        <v>409.358736964955</v>
       </c>
       <c r="Q2" t="n">
-        <v>103.2802639586414</v>
+        <v>103.2802639586401</v>
       </c>
       <c r="R2" t="n">
-        <v>39.52180169138521</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>25.57123921932421</v>
+        <v>151.6622745597324</v>
       </c>
       <c r="K3" t="n">
-        <v>122.649588151797</v>
+        <v>387.1148251643746</v>
       </c>
       <c r="L3" t="n">
-        <v>211.7079527806374</v>
+        <v>582.5482980840951</v>
       </c>
       <c r="M3" t="n">
-        <v>266.6055873691795</v>
+        <v>266.6055873691778</v>
       </c>
       <c r="N3" t="n">
-        <v>533.6701738480574</v>
+        <v>288.2160307407388</v>
       </c>
       <c r="O3" t="n">
-        <v>635.0794422580011</v>
+        <v>241.2171229812699</v>
       </c>
       <c r="P3" t="n">
-        <v>492.5324261689369</v>
+        <v>370.4522708965467</v>
       </c>
       <c r="Q3" t="n">
-        <v>276.0148132527188</v>
+        <v>276.0148132527179</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.257244451883267</v>
+        <v>2.257244451882869</v>
       </c>
       <c r="K4" t="n">
-        <v>134.8576659452559</v>
+        <v>134.8576659452552</v>
       </c>
       <c r="L4" t="n">
-        <v>228.6586902203478</v>
+        <v>228.6586902203469</v>
       </c>
       <c r="M4" t="n">
-        <v>251.5825922550914</v>
+        <v>251.5825922550905</v>
       </c>
       <c r="N4" t="n">
-        <v>251.0900320632333</v>
+        <v>251.0900320632325</v>
       </c>
       <c r="O4" t="n">
-        <v>215.7442084324799</v>
+        <v>215.7442084324792</v>
       </c>
       <c r="P4" t="n">
-        <v>160.8481764000445</v>
+        <v>160.8481764000438</v>
       </c>
       <c r="Q4" t="n">
-        <v>27.08508117944484</v>
+        <v>27.08508117944437</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>139.5828603915741</v>
+        <v>139.5828603915747</v>
       </c>
       <c r="K5" t="n">
-        <v>260.4495531344172</v>
+        <v>260.4495531344171</v>
       </c>
       <c r="L5" t="n">
         <v>360.3852081153408</v>
       </c>
       <c r="M5" t="n">
-        <v>432.9873135755194</v>
+        <v>432.9873135755192</v>
       </c>
       <c r="N5" t="n">
         <v>444.6539134873423</v>
       </c>
       <c r="O5" t="n">
-        <v>406.4041207495857</v>
+        <v>406.4041207495856</v>
       </c>
       <c r="P5" t="n">
         <v>312.0070187510057</v>
       </c>
       <c r="Q5" t="n">
-        <v>185.6449372342476</v>
+        <v>185.6449372342475</v>
       </c>
       <c r="R5" t="n">
-        <v>21.71629760961986</v>
+        <v>21.71629760961983</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>64.12666919171355</v>
+        <v>190.2177045321224</v>
       </c>
       <c r="K6" t="n">
-        <v>188.5469589931441</v>
+        <v>336.9735885949296</v>
       </c>
       <c r="L6" t="n">
         <v>300.3151001174896</v>
@@ -35029,16 +35029,16 @@
         <v>394.3530922482246</v>
       </c>
       <c r="O6" t="n">
-        <v>338.3117987025567</v>
+        <v>338.3117987025566</v>
       </c>
       <c r="P6" t="n">
-        <v>526.5143597553446</v>
+        <v>251.9966948131503</v>
       </c>
       <c r="Q6" t="n">
-        <v>328.1069739656114</v>
+        <v>328.1069739656113</v>
       </c>
       <c r="R6" t="n">
-        <v>25.33729477225504</v>
+        <v>25.33729477225502</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>26.44568217978362</v>
+        <v>26.4456821797836</v>
       </c>
       <c r="K7" t="n">
         <v>174.6066995266583</v>
@@ -35102,10 +35102,10 @@
         <v>279.5237680912597</v>
       </c>
       <c r="M7" t="n">
-        <v>305.2126850597958</v>
+        <v>305.2126850597957</v>
       </c>
       <c r="N7" t="n">
-        <v>303.4449211301933</v>
+        <v>303.4449211301932</v>
       </c>
       <c r="O7" t="n">
         <v>264.1024223701673</v>
@@ -35114,7 +35114,7 @@
         <v>202.2269825633447</v>
       </c>
       <c r="Q7" t="n">
-        <v>55.73362173643214</v>
+        <v>55.73362173643211</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>139.5828603915741</v>
+        <v>139.582860391574</v>
       </c>
       <c r="K8" t="n">
-        <v>260.4495531344173</v>
+        <v>260.4495531344171</v>
       </c>
       <c r="L8" t="n">
-        <v>360.385208115341</v>
+        <v>360.3852081153408</v>
       </c>
       <c r="M8" t="n">
-        <v>432.9873135755195</v>
+        <v>432.9873135755192</v>
       </c>
       <c r="N8" t="n">
-        <v>444.6539134873425</v>
+        <v>444.6539134873423</v>
       </c>
       <c r="O8" t="n">
-        <v>406.4041207495858</v>
+        <v>406.4041207495856</v>
       </c>
       <c r="P8" t="n">
-        <v>312.0070187510058</v>
+        <v>312.0070187510057</v>
       </c>
       <c r="Q8" t="n">
-        <v>185.6449372342477</v>
+        <v>185.6449372342475</v>
       </c>
       <c r="R8" t="n">
-        <v>21.71629760961991</v>
+        <v>21.71629760961983</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>64.1266691917136</v>
+        <v>64.12666919171352</v>
       </c>
       <c r="K9" t="n">
-        <v>188.5469589931442</v>
+        <v>188.5469589931441</v>
       </c>
       <c r="L9" t="n">
-        <v>300.3151001174897</v>
+        <v>300.3151001174896</v>
       </c>
       <c r="M9" t="n">
-        <v>370.005948982147</v>
+        <v>370.0059489821469</v>
       </c>
       <c r="N9" t="n">
-        <v>394.3530922482247</v>
+        <v>394.3530922482246</v>
       </c>
       <c r="O9" t="n">
-        <v>638.1667584170051</v>
+        <v>338.3117987025566</v>
       </c>
       <c r="P9" t="n">
-        <v>251.9966948131504</v>
+        <v>570.4594634530874</v>
       </c>
       <c r="Q9" t="n">
-        <v>328.1069739656114</v>
+        <v>309.4991650401237</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>26.44568217978365</v>
+        <v>26.4456821797836</v>
       </c>
       <c r="K10" t="n">
         <v>174.6066995266583</v>
       </c>
       <c r="L10" t="n">
-        <v>279.5237680912598</v>
+        <v>279.5237680912597</v>
       </c>
       <c r="M10" t="n">
-        <v>305.2126850597958</v>
+        <v>305.2126850597957</v>
       </c>
       <c r="N10" t="n">
-        <v>303.4449211301933</v>
+        <v>303.4449211301932</v>
       </c>
       <c r="O10" t="n">
-        <v>264.1024223701674</v>
+        <v>264.1024223701673</v>
       </c>
       <c r="P10" t="n">
-        <v>202.2269825633448</v>
+        <v>202.2269825633447</v>
       </c>
       <c r="Q10" t="n">
-        <v>55.73362173643217</v>
+        <v>55.73362173643211</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>349.0014880820871</v>
+        <v>196.0580237059041</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>57.65947400496642</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,28 +35959,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>374.5201816365647</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>394.9572236728654</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,19 +36196,19 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>455.0369220524544</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238454</v>
@@ -36217,7 +36217,7 @@
         <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>35.9785935799765</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K23" t="n">
         <v>479.454324036777</v>
@@ -36433,31 +36433,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>128.8146617507074</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36682,22 +36682,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>27.13475084531481</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>254.8360547723487</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,28 +37144,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>261.348781916454</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,25 +37387,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>98.78558167418976</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,7 +37624,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>35.97859357997668</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>357.9474711949737</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38098,7 +38098,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38116,7 +38116,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_9_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_9_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3725276.751749887</v>
+        <v>3727037.282052672</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7599947.162454614</v>
+        <v>7599947.162454613</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -673,10 +673,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>312.7173453913287</v>
+        <v>322.5971964093113</v>
       </c>
       <c r="H2" t="n">
-        <v>308.5974454495114</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -718,13 +718,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -825,19 +825,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>20.2968481214143</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>125.8951146780558</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>114.7793764994864</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -879,10 +879,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -907,7 +907,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>281.1869058272157</v>
       </c>
       <c r="G5" t="n">
         <v>11.52502338186935</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>223.5518288029175</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I6" t="n">
-        <v>19.80516901555394</v>
+        <v>19.80516901555393</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>166.2964268507295</v>
       </c>
       <c r="H7" t="n">
-        <v>147.161060211447</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1116,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>33.93089591116134</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>212.3164421775546</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1135,25 +1135,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>119.9288034530623</v>
+        <v>11.52502338186935</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>64.83556544767973</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>122.935408774453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>311.0721730274416</v>
       </c>
     </row>
     <row r="9">
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187868</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>20.38427178197995</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,7 +1584,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1770,19 +1770,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>239.7247859410132</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2052,7 +2052,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>28.75188085812055</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2718,13 +2718,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>1.79977260571614</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S34" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>46.29306638367346</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3483,7 +3483,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3711,10 +3711,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>80.08971311158706</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>80.33989744909005</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2203.392926076864</v>
+        <v>1532.695465266221</v>
       </c>
       <c r="C2" t="n">
-        <v>1834.430409136452</v>
+        <v>1532.695465266221</v>
       </c>
       <c r="D2" t="n">
-        <v>1476.164710529702</v>
+        <v>1174.429766659471</v>
       </c>
       <c r="E2" t="n">
-        <v>1090.376457931458</v>
+        <v>788.6415140612266</v>
       </c>
       <c r="F2" t="n">
-        <v>679.3905531418502</v>
+        <v>377.6556092716191</v>
       </c>
       <c r="G2" t="n">
-        <v>363.5144466859626</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H2" t="n">
         <v>51.79985532281972</v>
@@ -4345,7 +4345,7 @@
         <v>1807.363935909994</v>
       </c>
       <c r="O2" t="n">
-        <v>2082.480155226627</v>
+        <v>2287.44097753283</v>
       </c>
       <c r="P2" t="n">
         <v>2487.745304821932</v>
@@ -4366,16 +4366,16 @@
         <v>2589.992766140986</v>
       </c>
       <c r="V2" t="n">
-        <v>2589.992766140986</v>
+        <v>2258.929878797415</v>
       </c>
       <c r="W2" t="n">
-        <v>2589.992766140986</v>
+        <v>1906.161223527301</v>
       </c>
       <c r="X2" t="n">
-        <v>2589.992766140986</v>
+        <v>1532.695465266221</v>
       </c>
       <c r="Y2" t="n">
-        <v>2589.992766140986</v>
+        <v>1532.695465266221</v>
       </c>
     </row>
     <row r="3">
@@ -4391,43 +4391,43 @@
         <v>775.4371790282365</v>
       </c>
       <c r="D3" t="n">
-        <v>626.5027693669854</v>
+        <v>626.5027693669851</v>
       </c>
       <c r="E3" t="n">
-        <v>467.2653143615298</v>
+        <v>467.2653143615296</v>
       </c>
       <c r="F3" t="n">
-        <v>320.7307563884149</v>
+        <v>320.7307563884148</v>
       </c>
       <c r="G3" t="n">
         <v>183.6293921686809</v>
       </c>
       <c r="H3" t="n">
-        <v>85.99742130093843</v>
+        <v>85.99742130093844</v>
       </c>
       <c r="I3" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J3" t="n">
-        <v>201.9455071369548</v>
+        <v>77.11538214995008</v>
       </c>
       <c r="K3" t="n">
-        <v>585.1891840496857</v>
+        <v>198.5384744202281</v>
       </c>
       <c r="L3" t="n">
-        <v>1161.91199915294</v>
+        <v>503.4161250212397</v>
       </c>
       <c r="M3" t="n">
-        <v>1425.851530648426</v>
+        <v>767.3556565167257</v>
       </c>
       <c r="N3" t="n">
-        <v>1711.185401081757</v>
+        <v>1408.37886613662</v>
       </c>
       <c r="O3" t="n">
-        <v>1949.990352833214</v>
+        <v>2037.107513972039</v>
       </c>
       <c r="P3" t="n">
-        <v>2316.738101020796</v>
+        <v>2524.714615879286</v>
       </c>
       <c r="Q3" t="n">
         <v>2589.992766140986</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>908.7612653873479</v>
+        <v>391.3545444523697</v>
       </c>
       <c r="C4" t="n">
-        <v>739.825082459441</v>
+        <v>222.4183615244628</v>
       </c>
       <c r="D4" t="n">
-        <v>589.7084430471052</v>
+        <v>72.30172211212709</v>
       </c>
       <c r="E4" t="n">
-        <v>441.7953494647121</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="F4" t="n">
-        <v>294.9054019668017</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="G4" t="n">
-        <v>294.9054019668017</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H4" t="n">
-        <v>167.7386194637151</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I4" t="n">
         <v>51.79985532281972</v>
@@ -4527,13 +4527,13 @@
         <v>1311.202309361118</v>
       </c>
       <c r="W4" t="n">
-        <v>1311.202309361118</v>
+        <v>1021.785139324157</v>
       </c>
       <c r="X4" t="n">
-        <v>1311.202309361118</v>
+        <v>793.7955884261396</v>
       </c>
       <c r="Y4" t="n">
-        <v>1090.409730217588</v>
+        <v>573.0030092826095</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1587.443666017298</v>
+        <v>1460.484938830938</v>
       </c>
       <c r="C5" t="n">
-        <v>1218.481149076886</v>
+        <v>1091.522421890527</v>
       </c>
       <c r="D5" t="n">
-        <v>860.2154504701355</v>
+        <v>733.2567232837762</v>
       </c>
       <c r="E5" t="n">
-        <v>474.4271978718913</v>
+        <v>347.4684706855319</v>
       </c>
       <c r="F5" t="n">
         <v>63.44129308228371</v>
@@ -4567,25 +4567,25 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J5" t="n">
-        <v>189.9868871104787</v>
+        <v>189.986887110478</v>
       </c>
       <c r="K5" t="n">
-        <v>447.8319447135516</v>
+        <v>447.831944713551</v>
       </c>
       <c r="L5" t="n">
-        <v>804.613300747739</v>
+        <v>804.6133007477383</v>
       </c>
       <c r="M5" t="n">
-        <v>1233.270741187503</v>
+        <v>1233.270741187502</v>
       </c>
       <c r="N5" t="n">
-        <v>1673.478115539972</v>
+        <v>1673.478115539971</v>
       </c>
       <c r="O5" t="n">
         <v>2075.818195082062</v>
       </c>
       <c r="P5" t="n">
-        <v>2384.705143645557</v>
+        <v>2384.705143645558</v>
       </c>
       <c r="Q5" t="n">
         <v>2568.493631507462</v>
@@ -4606,13 +4606,13 @@
         <v>2589.992766140986</v>
       </c>
       <c r="W5" t="n">
-        <v>2364.182838057231</v>
+        <v>2237.224110870872</v>
       </c>
       <c r="X5" t="n">
-        <v>2364.182838057231</v>
+        <v>2237.224110870872</v>
       </c>
       <c r="Y5" t="n">
-        <v>1974.043506081419</v>
+        <v>1847.08477889506</v>
       </c>
     </row>
     <row r="6">
@@ -4640,7 +4640,7 @@
         <v>165.4559591202886</v>
       </c>
       <c r="H6" t="n">
-        <v>71.80507655065199</v>
+        <v>71.80507655065198</v>
       </c>
       <c r="I6" t="n">
         <v>51.79985532281972</v>
@@ -4649,25 +4649,25 @@
         <v>240.1153828096209</v>
       </c>
       <c r="K6" t="n">
-        <v>573.7192355186012</v>
+        <v>688.5974568552864</v>
       </c>
       <c r="L6" t="n">
-        <v>871.0311846349159</v>
+        <v>985.9094059716011</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.337074127241</v>
+        <v>1352.215295463927</v>
       </c>
       <c r="N6" t="n">
-        <v>1627.746635452984</v>
+        <v>1742.624856789669</v>
       </c>
       <c r="O6" t="n">
-        <v>1962.675316168515</v>
+        <v>2077.5535375052</v>
       </c>
       <c r="P6" t="n">
-        <v>2212.152044033533</v>
+        <v>2327.030265370219</v>
       </c>
       <c r="Q6" t="n">
-        <v>2536.977948259489</v>
+        <v>2562.061870084021</v>
       </c>
       <c r="R6" t="n">
         <v>2562.061870084021</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>982.2794430485947</v>
+        <v>833.6319074814764</v>
       </c>
       <c r="C7" t="n">
-        <v>813.3432601206878</v>
+        <v>664.6957245535696</v>
       </c>
       <c r="D7" t="n">
-        <v>663.226620708352</v>
+        <v>514.5790851412338</v>
       </c>
       <c r="E7" t="n">
-        <v>515.3135271259589</v>
+        <v>366.6659915588407</v>
       </c>
       <c r="F7" t="n">
-        <v>368.4235796280485</v>
+        <v>219.7760440609304</v>
       </c>
       <c r="G7" t="n">
-        <v>200.4473908899379</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H7" t="n">
         <v>51.79985532281972</v>
@@ -4725,25 +4725,25 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J7" t="n">
-        <v>77.98108068080549</v>
+        <v>77.9810806808055</v>
       </c>
       <c r="K7" t="n">
         <v>250.8417132121972</v>
       </c>
       <c r="L7" t="n">
-        <v>527.5702436225444</v>
+        <v>527.5702436225445</v>
       </c>
       <c r="M7" t="n">
-        <v>829.7308018317422</v>
+        <v>829.7308018317423</v>
       </c>
       <c r="N7" t="n">
-        <v>1130.141273750633</v>
+        <v>1130.141273750634</v>
       </c>
       <c r="O7" t="n">
         <v>1391.602671897099</v>
       </c>
       <c r="P7" t="n">
-        <v>1591.80738463481</v>
+        <v>1591.807384634811</v>
       </c>
       <c r="Q7" t="n">
         <v>1646.983670153878</v>
@@ -4752,25 +4752,25 @@
         <v>1646.983670153878</v>
       </c>
       <c r="S7" t="n">
-        <v>1646.983670153878</v>
+        <v>1450.534004159847</v>
       </c>
       <c r="T7" t="n">
-        <v>1646.983670153878</v>
+        <v>1450.534004159847</v>
       </c>
       <c r="U7" t="n">
-        <v>1646.983670153878</v>
+        <v>1450.534004159847</v>
       </c>
       <c r="V7" t="n">
-        <v>1646.983670153878</v>
+        <v>1450.534004159847</v>
       </c>
       <c r="W7" t="n">
-        <v>1612.710037920382</v>
+        <v>1450.534004159847</v>
       </c>
       <c r="X7" t="n">
-        <v>1384.720487022364</v>
+        <v>1236.072951455246</v>
       </c>
       <c r="Y7" t="n">
-        <v>1163.927907878834</v>
+        <v>1015.280372311716</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1018.378952710154</v>
+        <v>1218.481149076886</v>
       </c>
       <c r="C8" t="n">
-        <v>649.4164357697425</v>
+        <v>1218.481149076886</v>
       </c>
       <c r="D8" t="n">
-        <v>649.4164357697425</v>
+        <v>860.2154504701355</v>
       </c>
       <c r="E8" t="n">
-        <v>649.4164357697425</v>
+        <v>474.4271978718913</v>
       </c>
       <c r="F8" t="n">
-        <v>238.430530980135</v>
+        <v>63.44129308228371</v>
       </c>
       <c r="G8" t="n">
-        <v>117.2903254719912</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H8" t="n">
-        <v>117.2903254719912</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I8" t="n">
         <v>51.79985532281972</v>
@@ -4807,13 +4807,13 @@
         <v>189.9868871104782</v>
       </c>
       <c r="K8" t="n">
-        <v>447.8319447135507</v>
+        <v>447.8319447135512</v>
       </c>
       <c r="L8" t="n">
-        <v>804.6133007477381</v>
+        <v>804.6133007477385</v>
       </c>
       <c r="M8" t="n">
-        <v>1233.270741187502</v>
+        <v>1233.270741187503</v>
       </c>
       <c r="N8" t="n">
         <v>1673.478115539971</v>
@@ -4831,25 +4831,25 @@
         <v>2589.992766140986</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.815585560731</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.815585560731</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.815585560731</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="V8" t="n">
-        <v>2134.75269821716</v>
+        <v>2258.929878797415</v>
       </c>
       <c r="W8" t="n">
-        <v>1781.984042947046</v>
+        <v>1906.161223527301</v>
       </c>
       <c r="X8" t="n">
-        <v>1408.518284685966</v>
+        <v>1532.695465266221</v>
       </c>
       <c r="Y8" t="n">
-        <v>1018.378952710154</v>
+        <v>1218.481149076886</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J9" t="n">
-        <v>115.2852578226161</v>
+        <v>240.1153828096209</v>
       </c>
       <c r="K9" t="n">
-        <v>301.9467472258287</v>
+        <v>598.8031573431335</v>
       </c>
       <c r="L9" t="n">
-        <v>599.2586963421434</v>
+        <v>896.1151064594483</v>
       </c>
       <c r="M9" t="n">
-        <v>965.5645858344687</v>
+        <v>1262.420995951774</v>
       </c>
       <c r="N9" t="n">
-        <v>1355.974147160211</v>
+        <v>1652.830557277516</v>
       </c>
       <c r="O9" t="n">
-        <v>1690.902827875742</v>
+        <v>1987.759237993047</v>
       </c>
       <c r="P9" t="n">
-        <v>2255.657696694298</v>
+        <v>2237.235965858066</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.061870084021</v>
@@ -5047,16 +5047,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5132,7 +5132,7 @@
         <v>1074.481071167373</v>
       </c>
       <c r="N12" t="n">
-        <v>1702.079034721979</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
         <v>1896.176478190825</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>680.448174698413</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>530.3315352860773</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>382.4184417036842</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2426.372910063109</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2243.518075718013</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2023.916610740955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2023.916610740955</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1769.232122535068</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1479.814952498107</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1251.82540160009</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1031.03282245656</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5275,13 +5275,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5296,7 +5296,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5354,28 +5354,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452614</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718133</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5469,19 +5469,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="17">
@@ -5512,22 +5512,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5600,10 +5600,10 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>949.9304447718133</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N18" t="n">
         <v>1577.52840832642</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
@@ -5700,25 +5700,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5749,13 +5749,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5837,13 +5837,13 @@
         <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349513</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5977,10 +5977,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -5989,10 +5989,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6004,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6220,28 +6220,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6317,7 +6317,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>2446.96308358026</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>2273.199413378161</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>2018.514925172274</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1729.097755135313</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.108204237296</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6454,10 +6454,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
@@ -6472,13 +6472,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6648,25 +6648,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
@@ -6715,7 +6715,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>653.7474797708871</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2336.956424518383</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>2117.354959541324</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1828.279732885522</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1573.595244679635</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1284.178074642674</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1056.188523744657</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>835.3959446011269</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6919,13 +6919,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6934,16 +6934,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014779</v>
@@ -6955,10 +6955,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7013,22 +7013,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>768.5380889459582</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C37" t="n">
-        <v>599.6019060180513</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D37" t="n">
-        <v>449.4852666057155</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>449.4852666057155</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>449.4852666057155</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>282.2891673205955</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>140.5773361627936</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V37" t="n">
-        <v>1688.385853854706</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W37" t="n">
-        <v>1398.968683817745</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X37" t="n">
-        <v>1170.979132919728</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y37" t="n">
-        <v>950.1865537761979</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="38">
@@ -7174,10 +7174,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7359,7 +7359,7 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
         <v>2035.268256189238</v>
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>653.7474797708871</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>835.3959446011269</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7645,25 +7645,25 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>802.9288273958739</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>633.992644467967</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>483.8760050556313</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>483.8760050556313</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>483.8760050556313</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>316.6799057705112</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>174.9680746127093</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1205.369871369644</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>984.5772922261136</v>
       </c>
     </row>
   </sheetData>
@@ -7993,10 +7993,10 @@
         <v>338.9374781659705</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>207.0311336426299</v>
       </c>
       <c r="P2" t="n">
-        <v>207.0311336426302</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -8057,28 +8057,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>96.24927004866873</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>359.2821607945077</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>196.3826133675482</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>148.4266296017855</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8315,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>119.3759750973106</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.18437503906578</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>173.7639243740404</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,10 +8549,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>191.4694788103615</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>20.1843750390658</v>
@@ -11068,7 +11068,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>-1.972915003185951e-13</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>45.99097492814173</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23658,19 +23658,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23904,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24606,13 +24606,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S34" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>34.97276993489207</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25599,10 +25599,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0.9259388694754733</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>651206.7754371159</v>
+        <v>651206.7754371158</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>651206.7754371159</v>
+        <v>651206.7754371158</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>651206.7754371159</v>
+        <v>651206.7754371158</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>651206.7754371159</v>
+        <v>651206.7754371158</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>651206.7754371159</v>
+        <v>651206.7754371158</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>651206.7754371159</v>
+        <v>651206.7754371158</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>651206.7754371158</v>
+        <v>651206.7754371159</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710692</v>
+        <v>779989.681371069</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.6813710696</v>
+        <v>779989.6813710693</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.6813710693</v>
+        <v>779989.6813710694</v>
       </c>
       <c r="E2" t="n">
+        <v>766789.2697055059</v>
+      </c>
+      <c r="F2" t="n">
         <v>766789.2697055058</v>
       </c>
-      <c r="F2" t="n">
-        <v>766789.2697055059</v>
-      </c>
       <c r="G2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055062</v>
       </c>
       <c r="H2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="I2" t="n">
-        <v>766789.2697055057</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="J2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055062</v>
       </c>
       <c r="K2" t="n">
         <v>766789.269705506</v>
       </c>
       <c r="L2" t="n">
+        <v>766789.2697055059</v>
+      </c>
+      <c r="M2" t="n">
+        <v>766789.2697055056</v>
+      </c>
+      <c r="N2" t="n">
+        <v>766789.2697055057</v>
+      </c>
+      <c r="O2" t="n">
+        <v>766789.2697055057</v>
+      </c>
+      <c r="P2" t="n">
         <v>766789.2697055058</v>
-      </c>
-      <c r="M2" t="n">
-        <v>766789.2697055057</v>
-      </c>
-      <c r="N2" t="n">
-        <v>766789.2697055059</v>
-      </c>
-      <c r="O2" t="n">
-        <v>766789.2697055059</v>
-      </c>
-      <c r="P2" t="n">
-        <v>766789.269705506</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>939682.9358753958</v>
       </c>
       <c r="C3" t="n">
-        <v>172764.3597898951</v>
+        <v>172764.3597898952</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>500888.8677457507</v>
+        <v>500888.8677457508</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,31 +26417,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>159785.8388151604</v>
+        <v>159785.8388151603</v>
       </c>
       <c r="C4" t="n">
         <v>129066.7547252479</v>
       </c>
       <c r="D4" t="n">
-        <v>129066.7547252479</v>
+        <v>129066.754725248</v>
       </c>
       <c r="E4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="F4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="G4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="H4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="I4" t="n">
         <v>6287.480531695052</v>
       </c>
       <c r="J4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="K4" t="n">
         <v>6287.480531695052</v>
@@ -26456,7 +26456,7 @@
         <v>6287.480531695052</v>
       </c>
       <c r="O4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695023</v>
       </c>
       <c r="P4" t="n">
         <v>6287.480531695052</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-408824.1682164778</v>
+        <v>-408824.1682164779</v>
       </c>
       <c r="C6" t="n">
-        <v>384677.477494417</v>
+        <v>384677.4774944166</v>
       </c>
       <c r="D6" t="n">
-        <v>557441.8372843117</v>
+        <v>557441.8372843119</v>
       </c>
       <c r="E6" t="n">
-        <v>158143.012349796</v>
+        <v>158455.6536787173</v>
       </c>
       <c r="F6" t="n">
-        <v>659031.8800955468</v>
+        <v>659344.521424468</v>
       </c>
       <c r="G6" t="n">
-        <v>659031.8800955469</v>
+        <v>659344.5214244684</v>
       </c>
       <c r="H6" t="n">
-        <v>659031.8800955467</v>
+        <v>659344.521424468</v>
       </c>
       <c r="I6" t="n">
-        <v>659031.8800955467</v>
+        <v>659344.521424468</v>
       </c>
       <c r="J6" t="n">
-        <v>489617.8632694987</v>
+        <v>489930.5045984201</v>
       </c>
       <c r="K6" t="n">
-        <v>659031.8800955469</v>
+        <v>659344.5214244683</v>
       </c>
       <c r="L6" t="n">
-        <v>659031.8800955467</v>
+        <v>659344.5214244681</v>
       </c>
       <c r="M6" t="n">
-        <v>528147.4231913114</v>
+        <v>528460.0645202325</v>
       </c>
       <c r="N6" t="n">
-        <v>659031.8800955468</v>
+        <v>659344.5214244679</v>
       </c>
       <c r="O6" t="n">
-        <v>659031.8800955468</v>
+        <v>659344.5214244678</v>
       </c>
       <c r="P6" t="n">
-        <v>659031.8800955469</v>
+        <v>659344.521424468</v>
       </c>
     </row>
   </sheetData>
@@ -26740,7 +26740,7 @@
         <v>749.9809564976077</v>
       </c>
       <c r="C3" t="n">
-        <v>939.7063906498445</v>
+        <v>939.7063906498446</v>
       </c>
       <c r="D3" t="n">
         <v>939.7063906498445</v>
@@ -26795,7 +26795,7 @@
         <v>647.4981915352465</v>
       </c>
       <c r="D4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26962,7 +26962,7 @@
         <v>749.9809564976077</v>
       </c>
       <c r="C3" t="n">
-        <v>189.7254341522367</v>
+        <v>189.7254341522369</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26977,28 +26977,28 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>525.2100965644019</v>
+        <v>525.210096564402</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352466</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644019</v>
+        <v>525.210096564402</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644019</v>
+        <v>525.210096564402</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27393,10 +27393,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>99.57039330371543</v>
+        <v>89.69054228573282</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>308.5974454495114</v>
       </c>
       <c r="I2" t="n">
         <v>94.24014755885203</v>
@@ -27438,13 +27438,13 @@
         <v>251.1044530022292</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27545,19 +27545,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>126.1371145251549</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.6385546828073</v>
       </c>
       <c r="H4" t="n">
-        <v>24.30777298586474</v>
+        <v>150.2028876639205</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>114.7793764994864</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27599,10 +27599,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27627,7 +27627,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>125.6891399144957</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27678,7 +27678,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>125.6891399144955</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27791,7 +27791,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I7" t="n">
         <v>104.4906595130011</v>
@@ -27824,7 +27824,7 @@
         <v>101.1001486205444</v>
       </c>
       <c r="S7" t="n">
-        <v>194.4851693340911</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>220.7052287134384</v>
@@ -27836,10 +27836,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>252.5921024254297</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>13.3932132114825</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27855,25 +27855,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>291.596219928807</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>300.7862872484598</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T8" t="n">
         <v>206.5589059457607</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>75.16576562861195</v>
       </c>
     </row>
     <row r="9">
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.777714133265703</v>
+        <v>3.777714133265704</v>
       </c>
       <c r="H5" t="n">
         <v>38.6885148673074</v>
@@ -31290,37 +31290,37 @@
         <v>320.6287649182603</v>
       </c>
       <c r="K5" t="n">
-        <v>480.5394041793976</v>
+        <v>480.5394041793977</v>
       </c>
       <c r="L5" t="n">
         <v>596.1516230853281</v>
       </c>
       <c r="M5" t="n">
-        <v>663.3335468027919</v>
+        <v>663.3335468027921</v>
       </c>
       <c r="N5" t="n">
         <v>674.0669770839332</v>
       </c>
       <c r="O5" t="n">
-        <v>636.5023321712723</v>
+        <v>636.5023321712724</v>
       </c>
       <c r="P5" t="n">
         <v>543.2400145062752</v>
       </c>
       <c r="Q5" t="n">
-        <v>407.950627108697</v>
+        <v>407.9506271086971</v>
       </c>
       <c r="R5" t="n">
         <v>237.301835423752</v>
       </c>
       <c r="S5" t="n">
-        <v>86.0846608117923</v>
+        <v>86.08466081179232</v>
       </c>
       <c r="T5" t="n">
-        <v>16.53694361837062</v>
+        <v>16.53694361837063</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3022171306612562</v>
+        <v>0.3022171306612563</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31363,7 +31363,7 @@
         <v>19.52107049255621</v>
       </c>
       <c r="I6" t="n">
-        <v>69.59146383586113</v>
+        <v>69.59146383586115</v>
       </c>
       <c r="J6" t="n">
         <v>190.9642958583802</v>
@@ -31384,19 +31384,19 @@
         <v>480.9080431470011</v>
       </c>
       <c r="P6" t="n">
-        <v>385.9711022274805</v>
+        <v>385.9711022274806</v>
       </c>
       <c r="Q6" t="n">
-        <v>258.0114603157837</v>
+        <v>258.0114603157838</v>
       </c>
       <c r="R6" t="n">
         <v>125.4951289248982</v>
       </c>
       <c r="S6" t="n">
-        <v>37.54392985284989</v>
+        <v>37.5439298528499</v>
       </c>
       <c r="T6" t="n">
-        <v>8.147077103841573</v>
+        <v>8.147077103841575</v>
       </c>
       <c r="U6" t="n">
         <v>0.1329773194315818</v>
@@ -31442,25 +31442,25 @@
         <v>15.0661122959926</v>
       </c>
       <c r="I7" t="n">
-        <v>50.95981541425715</v>
+        <v>50.95981541425716</v>
       </c>
       <c r="J7" t="n">
         <v>119.8048622964564</v>
       </c>
       <c r="K7" t="n">
-        <v>196.8761913525411</v>
+        <v>196.8761913525412</v>
       </c>
       <c r="L7" t="n">
         <v>251.9337428309436</v>
       </c>
       <c r="M7" t="n">
-        <v>265.6288080979551</v>
+        <v>265.6288080979552</v>
       </c>
       <c r="N7" t="n">
-        <v>259.3127487509646</v>
+        <v>259.3127487509647</v>
       </c>
       <c r="O7" t="n">
-        <v>239.5172944561276</v>
+        <v>239.5172944561277</v>
       </c>
       <c r="P7" t="n">
         <v>204.9484232984512</v>
@@ -31469,16 +31469,16 @@
         <v>141.8956649881265</v>
       </c>
       <c r="R7" t="n">
-        <v>76.19324275662507</v>
+        <v>76.19324275662508</v>
       </c>
       <c r="S7" t="n">
-        <v>29.53142870288116</v>
+        <v>29.53142870288117</v>
       </c>
       <c r="T7" t="n">
-        <v>7.240360714843061</v>
+        <v>7.240360714843062</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0924301367852307</v>
+        <v>0.09243013678523071</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31852,10 +31852,10 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>403.8524967138027</v>
       </c>
       <c r="O12" t="n">
-        <v>338.6542681503486</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
@@ -32074,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32083,7 +32083,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>248.7449369209195</v>
+        <v>439.2440297647763</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32095,10 +32095,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32320,13 +32320,13 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>513.0745614164389</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>639.4703354763103</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32554,19 +32554,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>597.1709559744727</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33037,10 +33037,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33733,13 +33733,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33894,7 +33894,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K38" t="n">
         <v>699.5441750817575</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,31 +34438,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34713,10 +34713,10 @@
         <v>647.4981915352465</v>
       </c>
       <c r="O2" t="n">
-        <v>277.8951710269015</v>
+        <v>484.9263046695314</v>
       </c>
       <c r="P2" t="n">
-        <v>409.358736964955</v>
+        <v>202.3276033223249</v>
       </c>
       <c r="Q2" t="n">
         <v>103.2802639586401</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>151.6622745597324</v>
+        <v>25.57123921932359</v>
       </c>
       <c r="K3" t="n">
-        <v>387.1148251643746</v>
+        <v>122.649588151796</v>
       </c>
       <c r="L3" t="n">
-        <v>582.5482980840951</v>
+        <v>307.9572228293047</v>
       </c>
       <c r="M3" t="n">
         <v>266.6055873691778</v>
       </c>
       <c r="N3" t="n">
-        <v>288.2160307407388</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="O3" t="n">
-        <v>241.2171229812699</v>
+        <v>635.0794422579995</v>
       </c>
       <c r="P3" t="n">
-        <v>370.4522708965467</v>
+        <v>492.5324261689357</v>
       </c>
       <c r="Q3" t="n">
-        <v>276.0148132527179</v>
+        <v>65.93752551686885</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>139.5828603915747</v>
+        <v>139.5828603915741</v>
       </c>
       <c r="K5" t="n">
-        <v>260.4495531344171</v>
+        <v>260.4495531344172</v>
       </c>
       <c r="L5" t="n">
         <v>360.3852081153408</v>
       </c>
       <c r="M5" t="n">
-        <v>432.9873135755192</v>
+        <v>432.9873135755194</v>
       </c>
       <c r="N5" t="n">
         <v>444.6539134873423</v>
       </c>
       <c r="O5" t="n">
-        <v>406.4041207495856</v>
+        <v>406.4041207495857</v>
       </c>
       <c r="P5" t="n">
         <v>312.0070187510057</v>
       </c>
       <c r="Q5" t="n">
-        <v>185.6449372342475</v>
+        <v>185.6449372342476</v>
       </c>
       <c r="R5" t="n">
-        <v>21.71629760961983</v>
+        <v>21.71629760961986</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>190.2177045321224</v>
       </c>
       <c r="K6" t="n">
-        <v>336.9735885949296</v>
+        <v>453.0121960057227</v>
       </c>
       <c r="L6" t="n">
         <v>300.3151001174896</v>
@@ -35029,16 +35029,16 @@
         <v>394.3530922482246</v>
       </c>
       <c r="O6" t="n">
-        <v>338.3117987025566</v>
+        <v>338.3117987025567</v>
       </c>
       <c r="P6" t="n">
         <v>251.9966948131503</v>
       </c>
       <c r="Q6" t="n">
-        <v>328.1069739656113</v>
+        <v>237.4056613270729</v>
       </c>
       <c r="R6" t="n">
-        <v>25.33729477225502</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>26.4456821797836</v>
+        <v>26.44568217978362</v>
       </c>
       <c r="K7" t="n">
         <v>174.6066995266583</v>
@@ -35102,10 +35102,10 @@
         <v>279.5237680912597</v>
       </c>
       <c r="M7" t="n">
-        <v>305.2126850597957</v>
+        <v>305.2126850597958</v>
       </c>
       <c r="N7" t="n">
-        <v>303.4449211301932</v>
+        <v>303.4449211301933</v>
       </c>
       <c r="O7" t="n">
         <v>264.1024223701673</v>
@@ -35114,7 +35114,7 @@
         <v>202.2269825633447</v>
       </c>
       <c r="Q7" t="n">
-        <v>55.73362173643211</v>
+        <v>55.73362173643214</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>64.12666919171352</v>
+        <v>190.2177045321224</v>
       </c>
       <c r="K9" t="n">
-        <v>188.5469589931441</v>
+        <v>362.3108833671845</v>
       </c>
       <c r="L9" t="n">
         <v>300.3151001174896</v>
@@ -35269,10 +35269,10 @@
         <v>338.3117987025566</v>
       </c>
       <c r="P9" t="n">
-        <v>570.4594634530874</v>
+        <v>251.9966948131503</v>
       </c>
       <c r="Q9" t="n">
-        <v>309.4991650401237</v>
+        <v>328.1069739656113</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35500,10 +35500,10 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>272.5107846304694</v>
       </c>
       <c r="O12" t="n">
-        <v>196.0580237059041</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,7 +35731,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>110.1905571410453</v>
+        <v>300.6896499849021</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35743,10 +35743,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35968,13 +35968,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>374.5201816365647</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>508.128623392977</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,16 +36205,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>455.0369220524544</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36357,7 +36357,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
         <v>479.454324036777</v>
@@ -36375,7 +36375,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924728</v>
@@ -36685,10 +36685,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -37077,7 +37077,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
@@ -37092,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,25 +38092,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
